--- a/VersionColab/estadisticas_gusanos_lon_2.xlsx
+++ b/VersionColab/estadisticas_gusanos_lon_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,26 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>mad</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>cv_mediana_v1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>cv_mediana_v2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -478,6 +498,18 @@
       <c r="E2" t="n">
         <v>0.8043104583932554</v>
       </c>
+      <c r="F2" t="n">
+        <v>25223.25</v>
+      </c>
+      <c r="G2" t="n">
+        <v>19362.78497368316</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.319104149779045</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.012618517045376</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -497,6 +529,18 @@
       <c r="E3" t="n">
         <v>0.7524640651899394</v>
       </c>
+      <c r="F3" t="n">
+        <v>12671.75</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9384.87204314046</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.391964628988851</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.030908117003401</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -516,6 +560,18 @@
       <c r="E4" t="n">
         <v>0.7884227341674342</v>
       </c>
+      <c r="F4" t="n">
+        <v>22996.5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>19933.58682780782</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.52274533174414</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.319930262733931</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -535,6 +591,18 @@
       <c r="E5" t="n">
         <v>0.6984611555263505</v>
       </c>
+      <c r="F5" t="n">
+        <v>46663</v>
+      </c>
+      <c r="G5" t="n">
+        <v>36099.8814183929</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.162129853311085</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.8990581380816601</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -554,6 +622,18 @@
       <c r="E6" t="n">
         <v>0.5483272979085339</v>
       </c>
+      <c r="F6" t="n">
+        <v>3582</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2450.74146718976</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.7347692307692307</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5027161983978995</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -573,6 +653,18 @@
       <c r="E7" t="n">
         <v>0.7123565362306939</v>
       </c>
+      <c r="F7" t="n">
+        <v>21681.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>16634.0555905236</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.140531299316149</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8750160752511099</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -592,6 +684,18 @@
       <c r="E8" t="n">
         <v>0.7349534996140938</v>
       </c>
+      <c r="F8" t="n">
+        <v>37569.25</v>
+      </c>
+      <c r="G8" t="n">
+        <v>26521.52978573746</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.113905566674079</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.7863473363201382</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -611,6 +715,18 @@
       <c r="E9" t="n">
         <v>0.6227826306314725</v>
       </c>
+      <c r="F9" t="n">
+        <v>75807.5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>57097.97663908774</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8488606461004423</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.6393592367626419</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -630,6 +746,18 @@
       <c r="E10" t="n">
         <v>0.5302685581600668</v>
       </c>
+      <c r="F10" t="n">
+        <v>15754</v>
+      </c>
+      <c r="G10" t="n">
+        <v>12081.72547860215</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8286781337120614</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.63551236013898</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -649,6 +777,18 @@
       <c r="E11" t="n">
         <v>0.6846072230637716</v>
       </c>
+      <c r="F11" t="n">
+        <v>153430</v>
+      </c>
+      <c r="G11" t="n">
+        <v>115579.2211480412</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.112545229100349</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.8380832371204288</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -668,6 +808,18 @@
       <c r="E12" t="n">
         <v>0.7492512767629492</v>
       </c>
+      <c r="F12" t="n">
+        <v>87567</v>
+      </c>
+      <c r="G12" t="n">
+        <v>65938.73366803664</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.241134450208351</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9345853341842651</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -687,6 +839,18 @@
       <c r="E13" t="n">
         <v>0.5347098344050856</v>
       </c>
+      <c r="F13" t="n">
+        <v>15949.75</v>
+      </c>
+      <c r="G13" t="n">
+        <v>11702.17931066472</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.6671721080040993</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.4894978064821164</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -705,6 +869,18 @@
       </c>
       <c r="E14" t="n">
         <v>0.5398947074949793</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2343.5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1886.611323048378</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.7339492640150329</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.5908585415121761</v>
       </c>
     </row>
   </sheetData>
